--- a/6node/output_s.xlsx
+++ b/6node/output_s.xlsx
@@ -455,19 +455,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3528.085285039531</v>
+        <v>242.245169555222</v>
       </c>
       <c r="B2" t="n">
-        <v>46.46868180542518</v>
+        <v>159.7870462081287</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1820.392602918578</v>
       </c>
       <c r="D2" t="n">
-        <v>67.28687466839195</v>
+        <v>231.3724111404355</v>
       </c>
       <c r="E2" t="n">
-        <v>56.09689081040742</v>
+        <v>192.8945719094686</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
